--- a/docs/list1.xlsx
+++ b/docs/list1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\W25\AI-ZAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\W25\AI-ZM-DJANGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5E8655-2A32-48E2-9995-042B5D6220B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D203A60-A20D-46D7-909A-95F7C6EE2C77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="obj1.minus" sheetId="7" r:id="rId1"/>
+    <sheet name="лист1" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
